--- a/data/DMIteration/The result of score calculation.xlsx
+++ b/data/DMIteration/The result of score calculation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\githubDesktop\CIRP2025\CIRP-2025\img\DMIteration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\githubDesktop\CIRP2025\CIRP-2025\data\DMIteration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196BE4E1-69CB-47A2-8D08-94C2B267AB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0688F6-7419-4E4E-8410-E1A7A9EA8464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="36180" yWindow="1980" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,16 +205,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -222,14 +236,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2910,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="E30" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3629,6 +3669,13 @@
       <c r="T22">
         <v>3.5799999999999998E-2</v>
       </c>
+    </row>
+    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="M43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
